--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Calca-Calcr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Calca-Calcr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Calcr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,10 +531,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4680303333333333</v>
+        <v>0.41903</v>
       </c>
       <c r="H2">
-        <v>1.404091</v>
+        <v>1.25709</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +549,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09584066666666667</v>
+        <v>0.0005823333333333334</v>
       </c>
       <c r="N2">
-        <v>0.287522</v>
+        <v>0.001747</v>
       </c>
       <c r="O2">
-        <v>0.02890691849988695</v>
+        <v>9.625315715314126E-05</v>
       </c>
       <c r="P2">
-        <v>0.02890691849988695</v>
+        <v>9.625315715314125E-05</v>
       </c>
       <c r="Q2">
-        <v>0.04485633916688889</v>
+        <v>0.0002440151366666667</v>
       </c>
       <c r="R2">
-        <v>0.403707052502</v>
+        <v>0.00219613623</v>
       </c>
       <c r="S2">
-        <v>0.02890691849988695</v>
+        <v>9.625315715314126E-05</v>
       </c>
       <c r="T2">
-        <v>0.02890691849988695</v>
+        <v>9.625315715314125E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,10 +593,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4680303333333333</v>
+        <v>0.41903</v>
       </c>
       <c r="H3">
-        <v>1.404091</v>
+        <v>1.25709</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,96 +605,34 @@
         <v>1</v>
       </c>
       <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M3">
-        <v>0.0005823333333333332</v>
+        <v>6.049435666666667</v>
       </c>
       <c r="N3">
-        <v>0.001747</v>
+        <v>18.148307</v>
       </c>
       <c r="O3">
-        <v>0.0001756400783915752</v>
+        <v>0.9999037468428469</v>
       </c>
       <c r="P3">
-        <v>0.0001756400783915753</v>
+        <v>0.9999037468428468</v>
       </c>
       <c r="Q3">
-        <v>0.0002725496641111111</v>
+        <v>2.534895027403333</v>
       </c>
       <c r="R3">
-        <v>0.002452946977</v>
+        <v>22.81405524662999</v>
       </c>
       <c r="S3">
-        <v>0.0001756400783915752</v>
+        <v>0.9999037468428469</v>
       </c>
       <c r="T3">
-        <v>0.0001756400783915753</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.4680303333333333</v>
-      </c>
-      <c r="H4">
-        <v>1.404091</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>3.219069333333333</v>
-      </c>
-      <c r="N4">
-        <v>9.657207999999999</v>
-      </c>
-      <c r="O4">
-        <v>0.9709174414217214</v>
-      </c>
-      <c r="P4">
-        <v>0.9709174414217215</v>
-      </c>
-      <c r="Q4">
-        <v>1.506622093103111</v>
-      </c>
-      <c r="R4">
-        <v>13.559598837928</v>
-      </c>
-      <c r="S4">
-        <v>0.9709174414217214</v>
-      </c>
-      <c r="T4">
-        <v>0.9709174414217215</v>
+        <v>0.9999037468428468</v>
       </c>
     </row>
   </sheetData>
